--- a/Code/Results/Cases/Case_5_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_106/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.043839273133785</v>
+        <v>1.071720654839941</v>
       </c>
       <c r="D2">
-        <v>1.05584433286723</v>
+        <v>1.07233951787018</v>
       </c>
       <c r="E2">
-        <v>1.053748419836104</v>
+        <v>1.07553661343965</v>
       </c>
       <c r="F2">
-        <v>1.063687371280066</v>
+        <v>1.08489802213939</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.063442575719937</v>
+        <v>1.056687505477585</v>
       </c>
       <c r="J2">
-        <v>1.064783403276062</v>
+        <v>1.076643822910361</v>
       </c>
       <c r="K2">
-        <v>1.066576859767251</v>
+        <v>1.075034294231136</v>
       </c>
       <c r="L2">
-        <v>1.064506493972953</v>
+        <v>1.078222923148158</v>
       </c>
       <c r="M2">
-        <v>1.074325406678662</v>
+        <v>1.087559850481639</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.049185891618474</v>
+        <v>1.072846994044983</v>
       </c>
       <c r="D3">
-        <v>1.05991143736992</v>
+        <v>1.07321474526172</v>
       </c>
       <c r="E3">
-        <v>1.05819850725009</v>
+        <v>1.076516678603261</v>
       </c>
       <c r="F3">
-        <v>1.068248516551922</v>
+        <v>1.08590222190778</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065306968980193</v>
+        <v>1.057023721535139</v>
       </c>
       <c r="J3">
-        <v>1.068419944346561</v>
+        <v>1.077427355294652</v>
       </c>
       <c r="K3">
-        <v>1.069831103230581</v>
+        <v>1.075726102761785</v>
       </c>
       <c r="L3">
-        <v>1.06813718401348</v>
+        <v>1.079019922956136</v>
       </c>
       <c r="M3">
-        <v>1.078076721930576</v>
+        <v>1.088382694705964</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.052570920017204</v>
+        <v>1.073576123977232</v>
       </c>
       <c r="D4">
-        <v>1.062489371354221</v>
+        <v>1.073781312809024</v>
       </c>
       <c r="E4">
-        <v>1.061021092821981</v>
+        <v>1.077151391187133</v>
       </c>
       <c r="F4">
-        <v>1.071141528818047</v>
+        <v>1.086552567022073</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066478819567431</v>
+        <v>1.057240263459715</v>
       </c>
       <c r="J4">
-        <v>1.070719178172771</v>
+        <v>1.077934059826055</v>
       </c>
       <c r="K4">
-        <v>1.071887860391906</v>
+        <v>1.076173343002859</v>
       </c>
       <c r="L4">
-        <v>1.070434871589069</v>
+        <v>1.079535557031643</v>
       </c>
       <c r="M4">
-        <v>1.080450957105143</v>
+        <v>1.088915070758559</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.05397683743267</v>
+        <v>1.073882725371217</v>
       </c>
       <c r="D5">
-        <v>1.063560735286683</v>
+        <v>1.07401955402564</v>
       </c>
       <c r="E5">
-        <v>1.062194598008838</v>
+        <v>1.077418354377002</v>
       </c>
       <c r="F5">
-        <v>1.072344309215949</v>
+        <v>1.086826105889157</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.066963445861</v>
+        <v>1.057331055177647</v>
       </c>
       <c r="J5">
-        <v>1.07167334123502</v>
+        <v>1.078147007994584</v>
       </c>
       <c r="K5">
-        <v>1.07274120415418</v>
+        <v>1.076361265291357</v>
       </c>
       <c r="L5">
-        <v>1.071388905931126</v>
+        <v>1.079752310608274</v>
       </c>
       <c r="M5">
-        <v>1.081436823121257</v>
+        <v>1.089138867148556</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.054211911435553</v>
+        <v>1.073934209508419</v>
       </c>
       <c r="D6">
-        <v>1.063739908075725</v>
+        <v>1.074059559056642</v>
       </c>
       <c r="E6">
-        <v>1.062390880438199</v>
+        <v>1.07746318628332</v>
       </c>
       <c r="F6">
-        <v>1.072545487924857</v>
+        <v>1.086872042100385</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.067044353439406</v>
+        <v>1.057346285281576</v>
       </c>
       <c r="J6">
-        <v>1.071832833060675</v>
+        <v>1.078182758794213</v>
       </c>
       <c r="K6">
-        <v>1.072883832012896</v>
+        <v>1.076392812544494</v>
       </c>
       <c r="L6">
-        <v>1.071548406300397</v>
+        <v>1.0797887033656</v>
       </c>
       <c r="M6">
-        <v>1.081601648027006</v>
+        <v>1.08917644268711</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.052589772426838</v>
+        <v>1.073580220504426</v>
       </c>
       <c r="D7">
-        <v>1.062503735089576</v>
+        <v>1.073784495979531</v>
       </c>
       <c r="E7">
-        <v>1.061036824104122</v>
+        <v>1.077154957851983</v>
       </c>
       <c r="F7">
-        <v>1.071157652567476</v>
+        <v>1.086556221536698</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066485326360294</v>
+        <v>1.057241477576161</v>
       </c>
       <c r="J7">
-        <v>1.070731976019187</v>
+        <v>1.077936905526832</v>
       </c>
       <c r="K7">
-        <v>1.071899306762703</v>
+        <v>1.076175854413162</v>
       </c>
       <c r="L7">
-        <v>1.070447665686045</v>
+        <v>1.079538453378516</v>
       </c>
       <c r="M7">
-        <v>1.08046417789492</v>
+        <v>1.088918061194273</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.045662071970188</v>
+        <v>1.072101241727774</v>
       </c>
       <c r="D8">
-        <v>1.057230250894368</v>
+        <v>1.07263525571553</v>
       </c>
       <c r="E8">
-        <v>1.055264453083163</v>
+        <v>1.075867717970112</v>
       </c>
       <c r="F8">
-        <v>1.065241241260704</v>
+        <v>1.085237279778728</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.064079961154646</v>
+        <v>1.056801340791072</v>
       </c>
       <c r="J8">
-        <v>1.066023823059827</v>
+        <v>1.076908681962087</v>
       </c>
       <c r="K8">
-        <v>1.067687033098608</v>
+        <v>1.075268178088698</v>
       </c>
       <c r="L8">
-        <v>1.065744463340713</v>
+        <v>1.078492288958121</v>
       </c>
       <c r="M8">
-        <v>1.075604460532633</v>
+        <v>1.087837946592531</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.032849311485977</v>
+        <v>1.069497481231969</v>
       </c>
       <c r="D9">
-        <v>1.047503549747896</v>
+        <v>1.070611983483146</v>
       </c>
       <c r="E9">
-        <v>1.044632159275471</v>
+        <v>1.073603628622904</v>
       </c>
       <c r="F9">
-        <v>1.054343596123378</v>
+        <v>1.082917450115906</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059564989339843</v>
+        <v>1.05601801666587</v>
       </c>
       <c r="J9">
-        <v>1.057293117006207</v>
+        <v>1.075094582635956</v>
       </c>
       <c r="K9">
-        <v>1.059870219302677</v>
+        <v>1.073665637970375</v>
       </c>
       <c r="L9">
-        <v>1.057040357947232</v>
+        <v>1.076648228150465</v>
       </c>
       <c r="M9">
-        <v>1.066612489976388</v>
+        <v>1.085934207889327</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.023849423405515</v>
+        <v>1.067763231388565</v>
       </c>
       <c r="D10">
-        <v>1.04069353211514</v>
+        <v>1.069264396814444</v>
       </c>
       <c r="E10">
-        <v>1.037197213861441</v>
+        <v>1.072097076903654</v>
       </c>
       <c r="F10">
-        <v>1.046723188264436</v>
+        <v>1.081373822127672</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.056351292224436</v>
+        <v>1.05549059966333</v>
       </c>
       <c r="J10">
-        <v>1.051147743202283</v>
+        <v>1.07388368753645</v>
       </c>
       <c r="K10">
-        <v>1.054364969405013</v>
+        <v>1.072595209072355</v>
       </c>
       <c r="L10">
-        <v>1.050925840943078</v>
+        <v>1.075418475714622</v>
       </c>
       <c r="M10">
-        <v>1.060297148881159</v>
+        <v>1.084664771230003</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.019831171425802</v>
+        <v>1.067012654893675</v>
       </c>
       <c r="D11">
-        <v>1.037659268179767</v>
+        <v>1.068681181181303</v>
       </c>
       <c r="E11">
-        <v>1.033886489933064</v>
+        <v>1.071445401361244</v>
       </c>
       <c r="F11">
-        <v>1.043329930963366</v>
+        <v>1.080706112393262</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054907024588801</v>
+        <v>1.055260989920944</v>
       </c>
       <c r="J11">
-        <v>1.048401604451279</v>
+        <v>1.073359003086668</v>
       </c>
       <c r="K11">
-        <v>1.051904293831077</v>
+        <v>1.072131213267674</v>
       </c>
       <c r="L11">
-        <v>1.048196452494115</v>
+        <v>1.074885892044215</v>
       </c>
       <c r="M11">
-        <v>1.0574784931982</v>
+        <v>1.084115028323797</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.018319227676129</v>
+        <v>1.066733911733052</v>
       </c>
       <c r="D12">
-        <v>1.036518599749583</v>
+        <v>1.068464594071114</v>
       </c>
       <c r="E12">
-        <v>1.032642173849524</v>
+        <v>1.071203441148125</v>
       </c>
       <c r="F12">
-        <v>1.042054605743435</v>
+        <v>1.08045819940926</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054362231510658</v>
+        <v>1.055175517178846</v>
       </c>
       <c r="J12">
-        <v>1.047368023036722</v>
+        <v>1.073164058007953</v>
       </c>
       <c r="K12">
-        <v>1.050978080788302</v>
+        <v>1.071958790607647</v>
       </c>
       <c r="L12">
-        <v>1.047169628219165</v>
+        <v>1.074688052937296</v>
       </c>
       <c r="M12">
-        <v>1.056418146341751</v>
+        <v>1.083910819202641</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.018644441857568</v>
+        <v>1.066793700634688</v>
       </c>
       <c r="D13">
-        <v>1.036763905723711</v>
+        <v>1.068511050693327</v>
       </c>
       <c r="E13">
-        <v>1.032909757264994</v>
+        <v>1.071255337856292</v>
       </c>
       <c r="F13">
-        <v>1.042328856981437</v>
+        <v>1.080511372868922</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054479475230039</v>
+        <v>1.055193859763984</v>
       </c>
       <c r="J13">
-        <v>1.04759035532233</v>
+        <v>1.073205876828633</v>
       </c>
       <c r="K13">
-        <v>1.05117732027323</v>
+        <v>1.071995779198474</v>
       </c>
       <c r="L13">
-        <v>1.047390486403652</v>
+        <v>1.074730490720734</v>
       </c>
       <c r="M13">
-        <v>1.056646212040055</v>
+        <v>1.083954623208137</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.019706596263793</v>
+        <v>1.066989612790753</v>
       </c>
       <c r="D14">
-        <v>1.037565262401541</v>
+        <v>1.068663277100383</v>
       </c>
       <c r="E14">
-        <v>1.033783936622241</v>
+        <v>1.071425398790731</v>
       </c>
       <c r="F14">
-        <v>1.043224821728518</v>
+        <v>1.080685617702647</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054862164180253</v>
+        <v>1.055253928500516</v>
       </c>
       <c r="J14">
-        <v>1.048316449116685</v>
+        <v>1.073342889965405</v>
       </c>
       <c r="K14">
-        <v>1.051827985827186</v>
+        <v>1.072116962264881</v>
       </c>
       <c r="L14">
-        <v>1.048111844626248</v>
+        <v>1.074869538883131</v>
       </c>
       <c r="M14">
-        <v>1.057391121891805</v>
+        <v>1.084098148539844</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.020358419165703</v>
+        <v>1.067110327925951</v>
       </c>
       <c r="D15">
-        <v>1.038057177645558</v>
+        <v>1.068757074805723</v>
       </c>
       <c r="E15">
-        <v>1.034320590943679</v>
+        <v>1.071530192349144</v>
       </c>
       <c r="F15">
-        <v>1.043774851469122</v>
+        <v>1.080792989503351</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055096835215055</v>
+        <v>1.055290914257538</v>
       </c>
       <c r="J15">
-        <v>1.048762001409284</v>
+        <v>1.073427301137261</v>
       </c>
       <c r="K15">
-        <v>1.05222724395846</v>
+        <v>1.072191617354817</v>
       </c>
       <c r="L15">
-        <v>1.048554550937207</v>
+        <v>1.074955209217598</v>
       </c>
       <c r="M15">
-        <v>1.057848290250221</v>
+        <v>1.084186577896237</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.024113449345468</v>
+        <v>1.067813052329692</v>
       </c>
       <c r="D16">
-        <v>1.040893041268384</v>
+        <v>1.06930310922789</v>
       </c>
       <c r="E16">
-        <v>1.037414940781351</v>
+        <v>1.072140340627406</v>
       </c>
       <c r="F16">
-        <v>1.046946344226477</v>
+        <v>1.081418150413124</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.056445998768933</v>
+        <v>1.055505812095309</v>
       </c>
       <c r="J16">
-        <v>1.051328138657484</v>
+        <v>1.073918501554546</v>
       </c>
       <c r="K16">
-        <v>1.054526601673641</v>
+        <v>1.072625992567841</v>
       </c>
       <c r="L16">
-        <v>1.051105198318275</v>
+        <v>1.075453819594524</v>
       </c>
       <c r="M16">
-        <v>1.060482380484146</v>
+        <v>1.084701254427145</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.026435623569941</v>
+        <v>1.068253950192573</v>
       </c>
       <c r="D17">
-        <v>1.042648496099596</v>
+        <v>1.069645702287056</v>
       </c>
       <c r="E17">
-        <v>1.03933091502097</v>
+        <v>1.072523250419282</v>
       </c>
       <c r="F17">
-        <v>1.048910099661045</v>
+        <v>1.081810482625368</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.057277901972549</v>
+        <v>1.055640281294107</v>
       </c>
       <c r="J17">
-        <v>1.052914500080594</v>
+        <v>1.074226522519276</v>
       </c>
       <c r="K17">
-        <v>1.055947898703029</v>
+        <v>1.072898332744541</v>
       </c>
       <c r="L17">
-        <v>1.052682768434412</v>
+        <v>1.075766559960377</v>
       </c>
       <c r="M17">
-        <v>1.062111661679386</v>
+        <v>1.08502407919953</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.027778494463644</v>
+        <v>1.068511153718934</v>
       </c>
       <c r="D18">
-        <v>1.04366423022714</v>
+        <v>1.069845559780494</v>
       </c>
       <c r="E18">
-        <v>1.040439717337891</v>
+        <v>1.072746659976168</v>
       </c>
       <c r="F18">
-        <v>1.050046558356969</v>
+        <v>1.082039390056073</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.057758079948124</v>
+        <v>1.055718595769302</v>
       </c>
       <c r="J18">
-        <v>1.053831635710097</v>
+        <v>1.074406151309375</v>
       </c>
       <c r="K18">
-        <v>1.056769548025456</v>
+        <v>1.073057136584207</v>
       </c>
       <c r="L18">
-        <v>1.053595101351281</v>
+        <v>1.075948967167629</v>
       </c>
       <c r="M18">
-        <v>1.063053935270295</v>
+        <v>1.085212370811921</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.028234442816411</v>
+        <v>1.068598859470714</v>
       </c>
       <c r="D19">
-        <v>1.044009201914193</v>
+        <v>1.069913710888865</v>
       </c>
       <c r="E19">
-        <v>1.040816330124739</v>
+        <v>1.072822847837553</v>
       </c>
       <c r="F19">
-        <v>1.050432565552831</v>
+        <v>1.082117452877857</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05792096232391</v>
+        <v>1.055745278773268</v>
       </c>
       <c r="J19">
-        <v>1.054142992636581</v>
+        <v>1.07446739421126</v>
       </c>
       <c r="K19">
-        <v>1.057048478479755</v>
+        <v>1.07311127651625</v>
       </c>
       <c r="L19">
-        <v>1.053904875065603</v>
+        <v>1.076011161788709</v>
       </c>
       <c r="M19">
-        <v>1.06337388092819</v>
+        <v>1.085276572259018</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.026187685707495</v>
+        <v>1.068206642380543</v>
       </c>
       <c r="D20">
-        <v>1.042461005187201</v>
+        <v>1.069608942317018</v>
       </c>
       <c r="E20">
-        <v>1.039126260364765</v>
+        <v>1.072482161122809</v>
       </c>
       <c r="F20">
-        <v>1.048700340752813</v>
+        <v>1.081768382191987</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.057189172555525</v>
+        <v>1.055625866343882</v>
       </c>
       <c r="J20">
-        <v>1.052745147994926</v>
+        <v>1.074193478366383</v>
       </c>
       <c r="K20">
-        <v>1.055796173819192</v>
+        <v>1.072869118141283</v>
       </c>
       <c r="L20">
-        <v>1.052514325764031</v>
+        <v>1.075733006804408</v>
       </c>
       <c r="M20">
-        <v>1.061937693937834</v>
+        <v>1.084989443839706</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.019394363300269</v>
+        <v>1.066931920046811</v>
       </c>
       <c r="D21">
-        <v>1.037329664919377</v>
+        <v>1.06861844896881</v>
       </c>
       <c r="E21">
-        <v>1.033526921777469</v>
+        <v>1.071375317291386</v>
       </c>
       <c r="F21">
-        <v>1.042961401512995</v>
+        <v>1.080634304065064</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054749705148544</v>
+        <v>1.055236244874066</v>
       </c>
       <c r="J21">
-        <v>1.048103012776756</v>
+        <v>1.073302544499777</v>
       </c>
       <c r="K21">
-        <v>1.051636723622142</v>
+        <v>1.072081278912933</v>
       </c>
       <c r="L21">
-        <v>1.047899787794032</v>
+        <v>1.074828593045498</v>
       </c>
       <c r="M21">
-        <v>1.057172139910469</v>
+        <v>1.084055884185259</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.015010318402943</v>
+        <v>1.066130765846992</v>
       </c>
       <c r="D22">
-        <v>1.034024233709661</v>
+        <v>1.067995947839466</v>
       </c>
       <c r="E22">
-        <v>1.029921655118249</v>
+        <v>1.070679985695509</v>
       </c>
       <c r="F22">
-        <v>1.039266312669398</v>
+        <v>1.07992186679921</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.05316750697394</v>
+        <v>1.054990201396907</v>
       </c>
       <c r="J22">
-        <v>1.04510554484594</v>
+        <v>1.072742067100719</v>
       </c>
       <c r="K22">
-        <v>1.048950510852746</v>
+        <v>1.071585505276173</v>
       </c>
       <c r="L22">
-        <v>1.044922783406901</v>
+        <v>1.074259872329378</v>
       </c>
       <c r="M22">
-        <v>1.054098065596777</v>
+        <v>1.083468859656525</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.017345493590172</v>
+        <v>1.066555443213757</v>
       </c>
       <c r="D23">
-        <v>1.035784279756038</v>
+        <v>1.068325922582863</v>
       </c>
       <c r="E23">
-        <v>1.031841206652208</v>
+        <v>1.07104853859222</v>
       </c>
       <c r="F23">
-        <v>1.041233681283362</v>
+        <v>1.080299486057189</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054010993552953</v>
+        <v>1.055120735393103</v>
       </c>
       <c r="J23">
-        <v>1.046702292625268</v>
+        <v>1.073039216338018</v>
       </c>
       <c r="K23">
-        <v>1.050381487679799</v>
+        <v>1.071848364777689</v>
       </c>
       <c r="L23">
-        <v>1.046508378697123</v>
+        <v>1.074561369474736</v>
       </c>
       <c r="M23">
-        <v>1.05573532674796</v>
+        <v>1.083780057960426</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.026299753959986</v>
+        <v>1.068228018635275</v>
       </c>
       <c r="D24">
-        <v>1.042545749522873</v>
+        <v>1.069625552476248</v>
       </c>
       <c r="E24">
-        <v>1.039218761982558</v>
+        <v>1.07250072740706</v>
       </c>
       <c r="F24">
-        <v>1.048795149421116</v>
+        <v>1.081787405359505</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.057229281157703</v>
+        <v>1.055632380207449</v>
       </c>
       <c r="J24">
-        <v>1.052821696081221</v>
+        <v>1.074208409703586</v>
       </c>
       <c r="K24">
-        <v>1.055864754487865</v>
+        <v>1.07288231910989</v>
       </c>
       <c r="L24">
-        <v>1.052590461922004</v>
+        <v>1.075748168058896</v>
       </c>
       <c r="M24">
-        <v>1.062016327320927</v>
+        <v>1.085005094088302</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.036238474250022</v>
+        <v>1.070170334259381</v>
       </c>
       <c r="D25">
-        <v>1.050072902077313</v>
+        <v>1.071134827494607</v>
       </c>
       <c r="E25">
-        <v>1.047439102067667</v>
+        <v>1.074188450890803</v>
       </c>
       <c r="F25">
-        <v>1.057220585291628</v>
+        <v>1.083516667915173</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06076673463855</v>
+        <v>1.056221441994904</v>
       </c>
       <c r="J25">
-        <v>1.059604924306969</v>
+        <v>1.075563835077408</v>
       </c>
       <c r="K25">
-        <v>1.061940628307501</v>
+        <v>1.074080298709716</v>
       </c>
       <c r="L25">
-        <v>1.05934306202326</v>
+        <v>1.07712502990455</v>
       </c>
       <c r="M25">
-        <v>1.068991123348733</v>
+        <v>1.086426420179064</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_106/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_106/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.071720654839941</v>
+        <v>1.043839273133785</v>
       </c>
       <c r="D2">
-        <v>1.07233951787018</v>
+        <v>1.055844332867229</v>
       </c>
       <c r="E2">
-        <v>1.07553661343965</v>
+        <v>1.053748419836104</v>
       </c>
       <c r="F2">
-        <v>1.08489802213939</v>
+        <v>1.063687371280066</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056687505477585</v>
+        <v>1.063442575719936</v>
       </c>
       <c r="J2">
-        <v>1.076643822910361</v>
+        <v>1.064783403276061</v>
       </c>
       <c r="K2">
-        <v>1.075034294231136</v>
+        <v>1.06657685976725</v>
       </c>
       <c r="L2">
-        <v>1.078222923148158</v>
+        <v>1.064506493972953</v>
       </c>
       <c r="M2">
-        <v>1.087559850481639</v>
+        <v>1.074325406678662</v>
       </c>
       <c r="N2">
         <v>1.005712725503983</v>
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.072846994044983</v>
+        <v>1.049185891618474</v>
       </c>
       <c r="D3">
-        <v>1.07321474526172</v>
+        <v>1.05991143736992</v>
       </c>
       <c r="E3">
-        <v>1.076516678603261</v>
+        <v>1.05819850725009</v>
       </c>
       <c r="F3">
-        <v>1.08590222190778</v>
+        <v>1.068248516551922</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057023721535139</v>
+        <v>1.065306968980193</v>
       </c>
       <c r="J3">
-        <v>1.077427355294652</v>
+        <v>1.068419944346561</v>
       </c>
       <c r="K3">
-        <v>1.075726102761785</v>
+        <v>1.069831103230581</v>
       </c>
       <c r="L3">
-        <v>1.079019922956136</v>
+        <v>1.06813718401348</v>
       </c>
       <c r="M3">
-        <v>1.088382694705964</v>
+        <v>1.078076721930576</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.073576123977232</v>
+        <v>1.052570920017204</v>
       </c>
       <c r="D4">
-        <v>1.073781312809024</v>
+        <v>1.062489371354221</v>
       </c>
       <c r="E4">
-        <v>1.077151391187133</v>
+        <v>1.061021092821981</v>
       </c>
       <c r="F4">
-        <v>1.086552567022073</v>
+        <v>1.071141528818047</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057240263459715</v>
+        <v>1.066478819567431</v>
       </c>
       <c r="J4">
-        <v>1.077934059826055</v>
+        <v>1.070719178172771</v>
       </c>
       <c r="K4">
-        <v>1.076173343002859</v>
+        <v>1.071887860391906</v>
       </c>
       <c r="L4">
-        <v>1.079535557031643</v>
+        <v>1.070434871589069</v>
       </c>
       <c r="M4">
-        <v>1.088915070758559</v>
+        <v>1.080450957105143</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.073882725371217</v>
+        <v>1.053976837432668</v>
       </c>
       <c r="D5">
-        <v>1.07401955402564</v>
+        <v>1.063560735286682</v>
       </c>
       <c r="E5">
-        <v>1.077418354377002</v>
+        <v>1.062194598008836</v>
       </c>
       <c r="F5">
-        <v>1.086826105889157</v>
+        <v>1.072344309215948</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057331055177647</v>
+        <v>1.066963445861</v>
       </c>
       <c r="J5">
-        <v>1.078147007994584</v>
+        <v>1.071673341235019</v>
       </c>
       <c r="K5">
-        <v>1.076361265291357</v>
+        <v>1.072741204154178</v>
       </c>
       <c r="L5">
-        <v>1.079752310608274</v>
+        <v>1.071388905931125</v>
       </c>
       <c r="M5">
-        <v>1.089138867148556</v>
+        <v>1.081436823121255</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.073934209508419</v>
+        <v>1.054211911435553</v>
       </c>
       <c r="D6">
-        <v>1.074059559056642</v>
+        <v>1.063739908075725</v>
       </c>
       <c r="E6">
-        <v>1.07746318628332</v>
+        <v>1.062390880438199</v>
       </c>
       <c r="F6">
-        <v>1.086872042100385</v>
+        <v>1.072545487924857</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057346285281576</v>
+        <v>1.067044353439406</v>
       </c>
       <c r="J6">
-        <v>1.078182758794213</v>
+        <v>1.071832833060675</v>
       </c>
       <c r="K6">
-        <v>1.076392812544494</v>
+        <v>1.072883832012896</v>
       </c>
       <c r="L6">
-        <v>1.0797887033656</v>
+        <v>1.071548406300396</v>
       </c>
       <c r="M6">
-        <v>1.08917644268711</v>
+        <v>1.081601648027006</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.073580220504426</v>
+        <v>1.052589772426838</v>
       </c>
       <c r="D7">
-        <v>1.073784495979531</v>
+        <v>1.062503735089575</v>
       </c>
       <c r="E7">
-        <v>1.077154957851983</v>
+        <v>1.061036824104121</v>
       </c>
       <c r="F7">
-        <v>1.086556221536698</v>
+        <v>1.071157652567474</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057241477576161</v>
+        <v>1.066485326360293</v>
       </c>
       <c r="J7">
-        <v>1.077936905526832</v>
+        <v>1.070731976019187</v>
       </c>
       <c r="K7">
-        <v>1.076175854413162</v>
+        <v>1.071899306762702</v>
       </c>
       <c r="L7">
-        <v>1.079538453378516</v>
+        <v>1.070447665686044</v>
       </c>
       <c r="M7">
-        <v>1.088918061194273</v>
+        <v>1.080464177894919</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.072101241727774</v>
+        <v>1.045662071970189</v>
       </c>
       <c r="D8">
-        <v>1.07263525571553</v>
+        <v>1.057230250894369</v>
       </c>
       <c r="E8">
-        <v>1.075867717970112</v>
+        <v>1.055264453083163</v>
       </c>
       <c r="F8">
-        <v>1.085237279778728</v>
+        <v>1.065241241260704</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056801340791072</v>
+        <v>1.064079961154647</v>
       </c>
       <c r="J8">
-        <v>1.076908681962087</v>
+        <v>1.066023823059828</v>
       </c>
       <c r="K8">
-        <v>1.075268178088698</v>
+        <v>1.067687033098609</v>
       </c>
       <c r="L8">
-        <v>1.078492288958121</v>
+        <v>1.065744463340714</v>
       </c>
       <c r="M8">
-        <v>1.087837946592531</v>
+        <v>1.075604460532633</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.069497481231969</v>
+        <v>1.032849311485977</v>
       </c>
       <c r="D9">
-        <v>1.070611983483146</v>
+        <v>1.047503549747896</v>
       </c>
       <c r="E9">
-        <v>1.073603628622904</v>
+        <v>1.044632159275471</v>
       </c>
       <c r="F9">
-        <v>1.082917450115906</v>
+        <v>1.054343596123378</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05601801666587</v>
+        <v>1.059564989339843</v>
       </c>
       <c r="J9">
-        <v>1.075094582635956</v>
+        <v>1.057293117006207</v>
       </c>
       <c r="K9">
-        <v>1.073665637970375</v>
+        <v>1.059870219302677</v>
       </c>
       <c r="L9">
-        <v>1.076648228150465</v>
+        <v>1.057040357947232</v>
       </c>
       <c r="M9">
-        <v>1.085934207889327</v>
+        <v>1.066612489976388</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.067763231388565</v>
+        <v>1.023849423405517</v>
       </c>
       <c r="D10">
-        <v>1.069264396814444</v>
+        <v>1.040693532115142</v>
       </c>
       <c r="E10">
-        <v>1.072097076903654</v>
+        <v>1.037197213861443</v>
       </c>
       <c r="F10">
-        <v>1.081373822127672</v>
+        <v>1.046723188264438</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05549059966333</v>
+        <v>1.056351292224437</v>
       </c>
       <c r="J10">
-        <v>1.07388368753645</v>
+        <v>1.051147743202285</v>
       </c>
       <c r="K10">
-        <v>1.072595209072355</v>
+        <v>1.054364969405015</v>
       </c>
       <c r="L10">
-        <v>1.075418475714622</v>
+        <v>1.05092584094308</v>
       </c>
       <c r="M10">
-        <v>1.084664771230003</v>
+        <v>1.060297148881162</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.067012654893675</v>
+        <v>1.019831171425804</v>
       </c>
       <c r="D11">
-        <v>1.068681181181303</v>
+        <v>1.037659268179769</v>
       </c>
       <c r="E11">
-        <v>1.071445401361244</v>
+        <v>1.033886489933066</v>
       </c>
       <c r="F11">
-        <v>1.080706112393262</v>
+        <v>1.043329930963368</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055260989920944</v>
+        <v>1.054907024588802</v>
       </c>
       <c r="J11">
-        <v>1.073359003086668</v>
+        <v>1.048401604451281</v>
       </c>
       <c r="K11">
-        <v>1.072131213267674</v>
+        <v>1.051904293831078</v>
       </c>
       <c r="L11">
-        <v>1.074885892044215</v>
+        <v>1.048196452494117</v>
       </c>
       <c r="M11">
-        <v>1.084115028323797</v>
+        <v>1.057478493198202</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066733911733052</v>
+        <v>1.018319227676128</v>
       </c>
       <c r="D12">
-        <v>1.068464594071114</v>
+        <v>1.036518599749583</v>
       </c>
       <c r="E12">
-        <v>1.071203441148125</v>
+        <v>1.032642173849524</v>
       </c>
       <c r="F12">
-        <v>1.08045819940926</v>
+        <v>1.042054605743435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055175517178846</v>
+        <v>1.054362231510658</v>
       </c>
       <c r="J12">
-        <v>1.073164058007953</v>
+        <v>1.047368023036721</v>
       </c>
       <c r="K12">
-        <v>1.071958790607647</v>
+        <v>1.050978080788302</v>
       </c>
       <c r="L12">
-        <v>1.074688052937296</v>
+        <v>1.047169628219164</v>
       </c>
       <c r="M12">
-        <v>1.083910819202641</v>
+        <v>1.05641814634175</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066793700634688</v>
+        <v>1.018644441857568</v>
       </c>
       <c r="D13">
-        <v>1.068511050693327</v>
+        <v>1.036763905723711</v>
       </c>
       <c r="E13">
-        <v>1.071255337856292</v>
+        <v>1.032909757264993</v>
       </c>
       <c r="F13">
-        <v>1.080511372868922</v>
+        <v>1.042328856981437</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055193859763984</v>
+        <v>1.054479475230039</v>
       </c>
       <c r="J13">
-        <v>1.073205876828633</v>
+        <v>1.04759035532233</v>
       </c>
       <c r="K13">
-        <v>1.071995779198474</v>
+        <v>1.051177320273229</v>
       </c>
       <c r="L13">
-        <v>1.074730490720734</v>
+        <v>1.047390486403651</v>
       </c>
       <c r="M13">
-        <v>1.083954623208137</v>
+        <v>1.056646212040055</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.066989612790753</v>
+        <v>1.019706596263793</v>
       </c>
       <c r="D14">
-        <v>1.068663277100383</v>
+        <v>1.037565262401541</v>
       </c>
       <c r="E14">
-        <v>1.071425398790731</v>
+        <v>1.033783936622241</v>
       </c>
       <c r="F14">
-        <v>1.080685617702647</v>
+        <v>1.043224821728518</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055253928500516</v>
+        <v>1.054862164180254</v>
       </c>
       <c r="J14">
-        <v>1.073342889965405</v>
+        <v>1.048316449116685</v>
       </c>
       <c r="K14">
-        <v>1.072116962264881</v>
+        <v>1.051827985827186</v>
       </c>
       <c r="L14">
-        <v>1.074869538883131</v>
+        <v>1.048111844626248</v>
       </c>
       <c r="M14">
-        <v>1.084098148539844</v>
+        <v>1.057391121891805</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067110327925951</v>
+        <v>1.020358419165705</v>
       </c>
       <c r="D15">
-        <v>1.068757074805723</v>
+        <v>1.03805717764556</v>
       </c>
       <c r="E15">
-        <v>1.071530192349144</v>
+        <v>1.034320590943681</v>
       </c>
       <c r="F15">
-        <v>1.080792989503351</v>
+        <v>1.043774851469124</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055290914257538</v>
+        <v>1.055096835215056</v>
       </c>
       <c r="J15">
-        <v>1.073427301137261</v>
+        <v>1.048762001409286</v>
       </c>
       <c r="K15">
-        <v>1.072191617354817</v>
+        <v>1.052227243958462</v>
       </c>
       <c r="L15">
-        <v>1.074955209217598</v>
+        <v>1.048554550937209</v>
       </c>
       <c r="M15">
-        <v>1.084186577896237</v>
+        <v>1.057848290250223</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.067813052329692</v>
+        <v>1.024113449345468</v>
       </c>
       <c r="D16">
-        <v>1.06930310922789</v>
+        <v>1.040893041268385</v>
       </c>
       <c r="E16">
-        <v>1.072140340627406</v>
+        <v>1.037414940781352</v>
       </c>
       <c r="F16">
-        <v>1.081418150413124</v>
+        <v>1.046946344226478</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055505812095309</v>
+        <v>1.056445998768934</v>
       </c>
       <c r="J16">
-        <v>1.073918501554546</v>
+        <v>1.051328138657484</v>
       </c>
       <c r="K16">
-        <v>1.072625992567841</v>
+        <v>1.054526601673642</v>
       </c>
       <c r="L16">
-        <v>1.075453819594524</v>
+        <v>1.051105198318275</v>
       </c>
       <c r="M16">
-        <v>1.084701254427145</v>
+        <v>1.060482380484147</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068253950192573</v>
+        <v>1.026435623569939</v>
       </c>
       <c r="D17">
-        <v>1.069645702287056</v>
+        <v>1.042648496099595</v>
       </c>
       <c r="E17">
-        <v>1.072523250419282</v>
+        <v>1.039330915020969</v>
       </c>
       <c r="F17">
-        <v>1.081810482625368</v>
+        <v>1.048910099661043</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055640281294107</v>
+        <v>1.057277901972548</v>
       </c>
       <c r="J17">
-        <v>1.074226522519276</v>
+        <v>1.052914500080594</v>
       </c>
       <c r="K17">
-        <v>1.072898332744541</v>
+        <v>1.055947898703028</v>
       </c>
       <c r="L17">
-        <v>1.075766559960377</v>
+        <v>1.052682768434411</v>
       </c>
       <c r="M17">
-        <v>1.08502407919953</v>
+        <v>1.062111661679385</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.068511153718934</v>
+        <v>1.027778494463642</v>
       </c>
       <c r="D18">
-        <v>1.069845559780494</v>
+        <v>1.043664230227138</v>
       </c>
       <c r="E18">
-        <v>1.072746659976168</v>
+        <v>1.040439717337889</v>
       </c>
       <c r="F18">
-        <v>1.082039390056073</v>
+        <v>1.050046558356967</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055718595769302</v>
+        <v>1.057758079948123</v>
       </c>
       <c r="J18">
-        <v>1.074406151309375</v>
+        <v>1.053831635710094</v>
       </c>
       <c r="K18">
-        <v>1.073057136584207</v>
+        <v>1.056769548025454</v>
       </c>
       <c r="L18">
-        <v>1.075948967167629</v>
+        <v>1.053595101351279</v>
       </c>
       <c r="M18">
-        <v>1.085212370811921</v>
+        <v>1.063053935270293</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.068598859470714</v>
+        <v>1.028234442816411</v>
       </c>
       <c r="D19">
-        <v>1.069913710888865</v>
+        <v>1.044009201914193</v>
       </c>
       <c r="E19">
-        <v>1.072822847837553</v>
+        <v>1.040816330124739</v>
       </c>
       <c r="F19">
-        <v>1.082117452877857</v>
+        <v>1.050432565552832</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055745278773268</v>
+        <v>1.05792096232391</v>
       </c>
       <c r="J19">
-        <v>1.07446739421126</v>
+        <v>1.054142992636582</v>
       </c>
       <c r="K19">
-        <v>1.07311127651625</v>
+        <v>1.057048478479755</v>
       </c>
       <c r="L19">
-        <v>1.076011161788709</v>
+        <v>1.053904875065603</v>
       </c>
       <c r="M19">
-        <v>1.085276572259018</v>
+        <v>1.06337388092819</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068206642380543</v>
+        <v>1.026187685707495</v>
       </c>
       <c r="D20">
-        <v>1.069608942317018</v>
+        <v>1.042461005187202</v>
       </c>
       <c r="E20">
-        <v>1.072482161122809</v>
+        <v>1.039126260364766</v>
       </c>
       <c r="F20">
-        <v>1.081768382191987</v>
+        <v>1.048700340752814</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055625866343882</v>
+        <v>1.057189172555525</v>
       </c>
       <c r="J20">
-        <v>1.074193478366383</v>
+        <v>1.052745147994927</v>
       </c>
       <c r="K20">
-        <v>1.072869118141283</v>
+        <v>1.055796173819193</v>
       </c>
       <c r="L20">
-        <v>1.075733006804408</v>
+        <v>1.052514325764031</v>
       </c>
       <c r="M20">
-        <v>1.084989443839706</v>
+        <v>1.061937693937835</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066931920046811</v>
+        <v>1.019394363300269</v>
       </c>
       <c r="D21">
-        <v>1.06861844896881</v>
+        <v>1.037329664919377</v>
       </c>
       <c r="E21">
-        <v>1.071375317291386</v>
+        <v>1.03352692177747</v>
       </c>
       <c r="F21">
-        <v>1.080634304065064</v>
+        <v>1.042961401512996</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055236244874066</v>
+        <v>1.054749705148544</v>
       </c>
       <c r="J21">
-        <v>1.073302544499777</v>
+        <v>1.048103012776756</v>
       </c>
       <c r="K21">
-        <v>1.072081278912933</v>
+        <v>1.051636723622142</v>
       </c>
       <c r="L21">
-        <v>1.074828593045498</v>
+        <v>1.047899787794032</v>
       </c>
       <c r="M21">
-        <v>1.084055884185259</v>
+        <v>1.057172139910469</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.066130765846992</v>
+        <v>1.015010318402944</v>
       </c>
       <c r="D22">
-        <v>1.067995947839466</v>
+        <v>1.034024233709662</v>
       </c>
       <c r="E22">
-        <v>1.070679985695509</v>
+        <v>1.029921655118251</v>
       </c>
       <c r="F22">
-        <v>1.07992186679921</v>
+        <v>1.0392663126694</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054990201396907</v>
+        <v>1.053167506973941</v>
       </c>
       <c r="J22">
-        <v>1.072742067100719</v>
+        <v>1.045105544845941</v>
       </c>
       <c r="K22">
-        <v>1.071585505276173</v>
+        <v>1.048950510852747</v>
       </c>
       <c r="L22">
-        <v>1.074259872329378</v>
+        <v>1.044922783406902</v>
       </c>
       <c r="M22">
-        <v>1.083468859656525</v>
+        <v>1.054098065596778</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066555443213757</v>
+        <v>1.017345493590172</v>
       </c>
       <c r="D23">
-        <v>1.068325922582863</v>
+        <v>1.035784279756037</v>
       </c>
       <c r="E23">
-        <v>1.07104853859222</v>
+        <v>1.031841206652208</v>
       </c>
       <c r="F23">
-        <v>1.080299486057189</v>
+        <v>1.041233681283361</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.055120735393103</v>
+        <v>1.054010993552953</v>
       </c>
       <c r="J23">
-        <v>1.073039216338018</v>
+        <v>1.046702292625267</v>
       </c>
       <c r="K23">
-        <v>1.071848364777689</v>
+        <v>1.050381487679798</v>
       </c>
       <c r="L23">
-        <v>1.074561369474736</v>
+        <v>1.046508378697122</v>
       </c>
       <c r="M23">
-        <v>1.083780057960426</v>
+        <v>1.05573532674796</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068228018635275</v>
+        <v>1.026299753959987</v>
       </c>
       <c r="D24">
-        <v>1.069625552476248</v>
+        <v>1.042545749522874</v>
       </c>
       <c r="E24">
-        <v>1.07250072740706</v>
+        <v>1.039218761982559</v>
       </c>
       <c r="F24">
-        <v>1.081787405359505</v>
+        <v>1.048795149421117</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055632380207449</v>
+        <v>1.057229281157704</v>
       </c>
       <c r="J24">
-        <v>1.074208409703586</v>
+        <v>1.052821696081222</v>
       </c>
       <c r="K24">
-        <v>1.07288231910989</v>
+        <v>1.055864754487866</v>
       </c>
       <c r="L24">
-        <v>1.075748168058896</v>
+        <v>1.052590461922005</v>
       </c>
       <c r="M24">
-        <v>1.085005094088302</v>
+        <v>1.062016327320928</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.070170334259381</v>
+        <v>1.036238474250022</v>
       </c>
       <c r="D25">
-        <v>1.071134827494607</v>
+        <v>1.050072902077312</v>
       </c>
       <c r="E25">
-        <v>1.074188450890803</v>
+        <v>1.047439102067667</v>
       </c>
       <c r="F25">
-        <v>1.083516667915173</v>
+        <v>1.057220585291627</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056221441994904</v>
+        <v>1.06076673463855</v>
       </c>
       <c r="J25">
-        <v>1.075563835077408</v>
+        <v>1.059604924306968</v>
       </c>
       <c r="K25">
-        <v>1.074080298709716</v>
+        <v>1.061940628307501</v>
       </c>
       <c r="L25">
-        <v>1.07712502990455</v>
+        <v>1.059343062023259</v>
       </c>
       <c r="M25">
-        <v>1.086426420179064</v>
+        <v>1.068991123348733</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
